--- a/Output.xlsx
+++ b/Output.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <x:si>
     <x:t>1790513400158</x:t>
   </x:si>
@@ -53,6 +53,9 @@
   </x:si>
   <x:si>
     <x:t>MARIN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1460913400088</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -500,6 +503,39 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
+    <x:row r="4" spans="1:3">
+      <x:c r="A4" s="2" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B4" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C4" s="2" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:3">
+      <x:c r="A5" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B5" s="2" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C5" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:3">
+      <x:c r="A6" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B6" s="2" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C6" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
@@ -550,6 +586,39 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
+    <x:row r="4" spans="1:3">
+      <x:c r="A4" s="2" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B4" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C4" s="2" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:3">
+      <x:c r="A5" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B5" s="2" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C5" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:3">
+      <x:c r="A6" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B6" s="2" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C6" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>

--- a/Output.xlsx
+++ b/Output.xlsx
@@ -5,18 +5,18 @@
   <x:workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VitaliCiupac\Documents\GitHub\automated-reading-of-identity-cards\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manuel\Documents\UiPath\RoboticEnterpriseFramework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36030091-F3E2-4E4E-AF9B-11241A66E067}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{475C9762-E562-45FC-81EC-801D12CA0EF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
-    <x:workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="0" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <x:workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <x:sheet name="NewDataSet" sheetId="4" r:id="rId2"/>
-    <x:sheet name="Simple Fields" sheetId="6" r:id="rId6"/>
-    <x:sheet name="Simple Fields - Formatted" sheetId="7" r:id="rId7"/>
+    <x:sheet name="Simple Fields" sheetId="6" r:id="rId3"/>
+    <x:sheet name="Simple Fields - Formatted" sheetId="7" r:id="rId4"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="162913"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <x:si>
     <x:t>1790513400158</x:t>
   </x:si>
@@ -49,13 +49,100 @@
     <x:t>BOGDAN</x:t>
   </x:si>
   <x:si>
+    <x:t>46091340008</x:t>
+  </x:si>
+  <x:si>
     <x:t>POPESCU</x:t>
   </x:si>
   <x:si>
     <x:t>MARIN</x:t>
   </x:si>
   <x:si>
-    <x:t>1460913400088</x:t>
+    <x:t>178101743153</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BRIA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ALEXANDRU-BO G D A N</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1511104131251</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BASESCU</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TRAIAN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1531028197506</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GATES</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BILL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1950218114549</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MILULESCU</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IOAN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1840323114558</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NEDELCU</x:t>
+  </x:si>
+  <x:si>
+    <x:t>EMIL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1891113341181</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ISPILANTE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SENTIMENT BRUSLI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1740416350016</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ERDOGAN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MURAD-ALIN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NP22800202237896</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MIREA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VICTORIA-VERONICA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ȘIEVCIUK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>EUJEN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1430413126190</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BARA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IOSIF</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -395,9 +482,9 @@
   </x:sheetPr>
   <x:dimension ref="A1"/>
   <x:sheetViews>
-    <x:sheetView workbookViewId="0"/>
+    <x:sheetView tabSelected="1" workbookViewId="0"/>
   </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <x:sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <x:sheetData/>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -414,42 +501,42 @@
   </x:sheetPr>
   <x:dimension ref="A1:C7"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" workbookViewId="0">
+    <x:sheetView workbookViewId="0">
       <x:selection activeCell="F6" sqref="F6 F6:F6"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <x:sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <x:sheetData>
-    <x:row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <x:row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <x:c r="A1" s="2" t="s"/>
       <x:c r="B1" s="2" t="s"/>
       <x:c r="C1" s="2" t="s"/>
     </x:row>
-    <x:row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <x:row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <x:c r="A2" s="2" t="s"/>
       <x:c r="B2" s="2" t="s"/>
       <x:c r="C2" s="2" t="s"/>
     </x:row>
-    <x:row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <x:row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <x:c r="A3" s="2" t="s"/>
       <x:c r="B3" s="2" t="s"/>
       <x:c r="C3" s="2" t="s"/>
     </x:row>
-    <x:row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <x:row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <x:c r="A4" s="2" t="s"/>
       <x:c r="B4" s="2" t="s"/>
       <x:c r="C4" s="2" t="s"/>
     </x:row>
-    <x:row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <x:row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <x:c r="A5" s="2" t="s"/>
       <x:c r="B5" s="2" t="s"/>
       <x:c r="C5" s="2" t="s"/>
     </x:row>
-    <x:row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <x:row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <x:c r="B6" s="2" t="s"/>
       <x:c r="C6" s="2" t="s"/>
     </x:row>
-    <x:row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <x:row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <x:c r="B7" s="2" t="s"/>
       <x:c r="C7" s="2" t="s"/>
     </x:row>
@@ -463,17 +550,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0200-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:C1"/>
+  <x:dimension ref="A1:C9"/>
   <x:sheetViews>
-    <x:sheetView workbookViewId="0"/>
+    <x:sheetView workbookViewId="0">
+      <x:selection activeCell="A1" sqref="A1 A1:A1 A1:C1"/>
+    </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <x:sheetData>
-    <x:row r="1" spans="1:3">
+    <x:row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A1" s="2" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -484,7 +573,7 @@
         <x:v>2</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:3">
+    <x:row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A2" s="2" t="s">
         <x:v>3</x:v>
       </x:c>
@@ -495,45 +584,125 @@
         <x:v>5</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:3">
+    <x:row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <x:c r="A3" s="2" t="s">
+        <x:v>6</x:v>
+      </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C3" s="2" t="s">
-        <x:v>7</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:3">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A4" s="2" t="s">
-        <x:v>0</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>1</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C4" s="2" t="s">
-        <x:v>2</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:3">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A5" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C5" s="2" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:3">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A6" s="2" t="s">
-        <x:v>8</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>6</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C6" s="2" t="s">
-        <x:v>7</x:v>
+        <x:v>17</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <x:c r="A7" s="2" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="B7" s="2" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C7" s="2" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <x:c r="A8" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B8" s="2" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C8" s="2" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <x:c r="A9" s="2" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B9" s="2" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C9" s="2" t="s">
+        <x:v>26</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:3">
+      <x:c r="A10" s="2" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B10" s="2" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C10" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:3">
+      <x:c r="A11" s="2" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="B11" s="2" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="C11" s="2" t="s">
+        <x:v>32</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:3">
+      <x:c r="A12" s="2" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B12" s="2" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="C12" s="2" t="s">
+        <x:v>34</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:3">
+      <x:c r="A13" s="2" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B13" s="2" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="C13" s="2" t="s">
+        <x:v>37</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -546,17 +715,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0300-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:C1"/>
+  <x:dimension ref="A1:C9"/>
   <x:sheetViews>
-    <x:sheetView workbookViewId="0"/>
+    <x:sheetView workbookViewId="0">
+      <x:selection activeCell="A1" sqref="A1 A1:A1 A1:C1"/>
+    </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <x:sheetData>
-    <x:row r="1" spans="1:3">
+    <x:row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A1" s="2" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -567,7 +738,7 @@
         <x:v>2</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:3">
+    <x:row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A2" s="2" t="s">
         <x:v>3</x:v>
       </x:c>
@@ -578,45 +749,125 @@
         <x:v>5</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:3">
+    <x:row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <x:c r="A3" s="2" t="s">
+        <x:v>6</x:v>
+      </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C3" s="2" t="s">
-        <x:v>7</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:3">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A4" s="2" t="s">
-        <x:v>0</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>1</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C4" s="2" t="s">
-        <x:v>2</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:3">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A5" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C5" s="2" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:3">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A6" s="2" t="s">
-        <x:v>8</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>6</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C6" s="2" t="s">
-        <x:v>7</x:v>
+        <x:v>17</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <x:c r="A7" s="2" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="B7" s="2" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C7" s="2" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <x:c r="A8" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B8" s="2" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C8" s="2" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <x:c r="A9" s="2" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B9" s="2" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C9" s="2" t="s">
+        <x:v>26</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:3">
+      <x:c r="A10" s="2" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B10" s="2" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C10" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:3">
+      <x:c r="A11" s="2" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="B11" s="2" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="C11" s="2" t="s">
+        <x:v>32</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:3">
+      <x:c r="A12" s="2" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B12" s="2" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="C12" s="2" t="s">
+        <x:v>34</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:3">
+      <x:c r="A13" s="2" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B13" s="2" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="C13" s="2" t="s">
+        <x:v>37</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
